--- a/biology/Botanique/Liste_des_domaines_de_forêts_d'État_des_Pays-Bas/Liste_des_domaines_de_forêts_d'État_des_Pays-Bas.xlsx
+++ b/biology/Botanique/Liste_des_domaines_de_forêts_d'État_des_Pays-Bas/Liste_des_domaines_de_forêts_d'État_des_Pays-Bas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_domaines_de_for%C3%AAts_d%27%C3%89tat_des_Pays-Bas</t>
+          <t>Liste_des_domaines_de_forêts_d'État_des_Pays-Bas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente la liste des domaines de forêts d'État des Pays-Bas.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_domaines_de_for%C3%AAts_d%27%C3%89tat_des_Pays-Bas</t>
+          <t>Liste_des_domaines_de_forêts_d'État_des_Pays-Bas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t xml:space="preserve"> Brabant-Septentrional</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chaamse bossen
 Boswachterij Dorst
@@ -542,7 +556,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_domaines_de_for%C3%AAts_d%27%C3%89tat_des_Pays-Bas</t>
+          <t>Liste_des_domaines_de_forêts_d'État_des_Pays-Bas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -560,7 +574,9 @@
           <t xml:space="preserve"> Drenthe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bargerveen (Meerstalblok, Amsterdamsche Veld et Schoonebeekerveld)
 Boswachterij Emmen
@@ -590,7 +606,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_domaines_de_for%C3%AAts_d%27%C3%89tat_des_Pays-Bas</t>
+          <t>Liste_des_domaines_de_forêts_d'État_des_Pays-Bas</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -608,7 +624,9 @@
           <t xml:space="preserve"> Flevoland</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Almeerderhout
 Boswachterij Reve-Abbert
@@ -625,7 +643,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_domaines_de_for%C3%AAts_d%27%C3%89tat_des_Pays-Bas</t>
+          <t>Liste_des_domaines_de_forêts_d'État_des_Pays-Bas</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -643,7 +661,9 @@
           <t xml:space="preserve"> Frise</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ameland
 Bakkeveen
@@ -671,7 +691,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_des_domaines_de_for%C3%AAts_d%27%C3%89tat_des_Pays-Bas</t>
+          <t>Liste_des_domaines_de_forêts_d'État_des_Pays-Bas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -689,7 +709,9 @@
           <t xml:space="preserve"> Groningue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Bos op Houwingaham
 Hoeksmeer
@@ -709,7 +731,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_des_domaines_de_for%C3%AAts_d%27%C3%89tat_des_Pays-Bas</t>
+          <t>Liste_des_domaines_de_forêts_d'État_des_Pays-Bas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,7 +749,9 @@
           <t xml:space="preserve"> Gueldre</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Bommelerwaard
 Boswachterij Nunspeet
@@ -747,7 +771,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_des_domaines_de_for%C3%AAts_d%27%C3%89tat_des_Pays-Bas</t>
+          <t>Liste_des_domaines_de_forêts_d'État_des_Pays-Bas</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -765,7 +789,9 @@
           <t xml:space="preserve"> Hollande-Méridionale</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Bentwoud
 Grevelingen (en partie en Zélande)
@@ -783,7 +809,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_des_domaines_de_for%C3%AAts_d%27%C3%89tat_des_Pays-Bas</t>
+          <t>Liste_des_domaines_de_forêts_d'État_des_Pays-Bas</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -801,7 +827,9 @@
           <t xml:space="preserve"> Hollande-Septentrionale</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Landgoed Elswout
 Parc national Duinen van Texel
@@ -817,7 +845,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_des_domaines_de_for%C3%AAts_d%27%C3%89tat_des_Pays-Bas</t>
+          <t>Liste_des_domaines_de_forêts_d'État_des_Pays-Bas</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -835,7 +863,9 @@
           <t xml:space="preserve"> Limbourg</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Bunderbos
 Gerendal
@@ -856,7 +886,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_des_domaines_de_for%C3%AAts_d%27%C3%89tat_des_Pays-Bas</t>
+          <t>Liste_des_domaines_de_forêts_d'État_des_Pays-Bas</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -874,7 +904,9 @@
           <t xml:space="preserve"> Overijssel</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Boswachterij Staphorst
 De Borkeld
@@ -893,7 +925,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_des_domaines_de_for%C3%AAts_d%27%C3%89tat_des_Pays-Bas</t>
+          <t>Liste_des_domaines_de_forêts_d'État_des_Pays-Bas</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -911,7 +943,9 @@
           <t xml:space="preserve"> Utrecht</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Boswachterij Austerlitz
 Boswachterij De Vuursche
@@ -930,7 +964,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_des_domaines_de_for%C3%AAts_d%27%C3%89tat_des_Pays-Bas</t>
+          <t>Liste_des_domaines_de_forêts_d'État_des_Pays-Bas</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -948,7 +982,9 @@
           <t xml:space="preserve"> Zélande</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Grevelingen (en partie en Hollande)
 Noord-Beveland
